--- a/SVM/Prediction/Bow/3/Ironic/predict.xlsx
+++ b/SVM/Prediction/Bow/3/Ironic/predict.xlsx
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -21151,7 +21151,7 @@
         <v>0</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -22159,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="D742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -22859,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -25015,7 +25015,7 @@
         <v>1</v>
       </c>
       <c r="D946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -26583,7 +26583,7 @@
         <v>0</v>
       </c>
       <c r="D1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="D1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:4">
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="D1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:4">
@@ -31133,7 +31133,7 @@
         <v>1</v>
       </c>
       <c r="D1383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384" spans="1:4">
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="D1399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1400" spans="1:4">
@@ -31511,7 +31511,7 @@
         <v>0</v>
       </c>
       <c r="D1410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:4">
@@ -31567,7 +31567,7 @@
         <v>1</v>
       </c>
       <c r="D1414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -31931,7 +31931,7 @@
         <v>0</v>
       </c>
       <c r="D1440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -31945,7 +31945,7 @@
         <v>0</v>
       </c>
       <c r="D1441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:4">
@@ -32043,7 +32043,7 @@
         <v>0</v>
       </c>
       <c r="D1448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:4">
@@ -32197,7 +32197,7 @@
         <v>0</v>
       </c>
       <c r="D1459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460" spans="1:4">
@@ -32449,7 +32449,7 @@
         <v>1</v>
       </c>
       <c r="D1477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1478" spans="1:4">
@@ -32463,7 +32463,7 @@
         <v>1</v>
       </c>
       <c r="D1478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479" spans="1:4">
@@ -32841,7 +32841,7 @@
         <v>0</v>
       </c>
       <c r="D1505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -32967,7 +32967,7 @@
         <v>1</v>
       </c>
       <c r="D1514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515" spans="1:4">
@@ -33037,7 +33037,7 @@
         <v>1</v>
       </c>
       <c r="D1519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520" spans="1:4">
@@ -33051,7 +33051,7 @@
         <v>0</v>
       </c>
       <c r="D1520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521" spans="1:4">
@@ -33247,7 +33247,7 @@
         <v>0</v>
       </c>
       <c r="D1534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -33289,7 +33289,7 @@
         <v>0</v>
       </c>
       <c r="D1537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1538" spans="1:4">
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="D1602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1603" spans="1:4">
@@ -34297,7 +34297,7 @@
         <v>1</v>
       </c>
       <c r="D1609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -34675,7 +34675,7 @@
         <v>1</v>
       </c>
       <c r="D1636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1637" spans="1:4">
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="D1676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1677" spans="1:4">
@@ -35333,7 +35333,7 @@
         <v>1</v>
       </c>
       <c r="D1683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1684" spans="1:4">
@@ -35389,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="D1687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -35403,7 +35403,7 @@
         <v>0</v>
       </c>
       <c r="D1688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1689" spans="1:4">
@@ -35515,7 +35515,7 @@
         <v>0</v>
       </c>
       <c r="D1696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1697" spans="1:4">
@@ -35711,7 +35711,7 @@
         <v>0</v>
       </c>
       <c r="D1710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1711" spans="1:4">
@@ -35879,7 +35879,7 @@
         <v>0</v>
       </c>
       <c r="D1722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723" spans="1:4">
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="D1730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="D1756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1757" spans="1:4">
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="D1797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1798" spans="1:4">
@@ -36985,7 +36985,7 @@
         <v>0</v>
       </c>
       <c r="D1801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -37293,7 +37293,7 @@
         <v>0</v>
       </c>
       <c r="D1823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1824" spans="1:4">
@@ -37629,7 +37629,7 @@
         <v>0</v>
       </c>
       <c r="D1847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1848" spans="1:4">
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="D1848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1849" spans="1:4">
@@ -38245,7 +38245,7 @@
         <v>1</v>
       </c>
       <c r="D1891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892" spans="1:4">
@@ -38259,7 +38259,7 @@
         <v>0</v>
       </c>
       <c r="D1892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1893" spans="1:4">
@@ -38469,7 +38469,7 @@
         <v>0</v>
       </c>
       <c r="D1907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1908" spans="1:4">
@@ -38483,7 +38483,7 @@
         <v>0</v>
       </c>
       <c r="D1908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1909" spans="1:4">
@@ -38903,7 +38903,7 @@
         <v>0</v>
       </c>
       <c r="D1938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1939" spans="1:4">
@@ -38945,7 +38945,7 @@
         <v>0</v>
       </c>
       <c r="D1941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1942" spans="1:4">
@@ -38987,7 +38987,7 @@
         <v>1</v>
       </c>
       <c r="D1944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1945" spans="1:4">
@@ -40065,7 +40065,7 @@
         <v>1</v>
       </c>
       <c r="D2021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2022" spans="1:4">
@@ -40135,7 +40135,7 @@
         <v>0</v>
       </c>
       <c r="D2026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2027" spans="1:4">
@@ -40401,7 +40401,7 @@
         <v>0</v>
       </c>
       <c r="D2045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2046" spans="1:4">
@@ -40653,7 +40653,7 @@
         <v>0</v>
       </c>
       <c r="D2063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -40695,7 +40695,7 @@
         <v>0</v>
       </c>
       <c r="D2066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2067" spans="1:4">
@@ -41101,7 +41101,7 @@
         <v>0</v>
       </c>
       <c r="D2095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2096" spans="1:4">
@@ -41143,7 +41143,7 @@
         <v>1</v>
       </c>
       <c r="D2098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -41563,7 +41563,7 @@
         <v>0</v>
       </c>
       <c r="D2128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2129" spans="1:4">
@@ -41913,7 +41913,7 @@
         <v>0</v>
       </c>
       <c r="D2153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2154" spans="1:4">
@@ -42151,7 +42151,7 @@
         <v>1</v>
       </c>
       <c r="D2170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2171" spans="1:4">
@@ -42403,7 +42403,7 @@
         <v>0</v>
       </c>
       <c r="D2188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2189" spans="1:4">
@@ -42711,7 +42711,7 @@
         <v>0</v>
       </c>
       <c r="D2210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2211" spans="1:4">
@@ -43089,7 +43089,7 @@
         <v>1</v>
       </c>
       <c r="D2237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2238" spans="1:4">
@@ -43229,7 +43229,7 @@
         <v>1</v>
       </c>
       <c r="D2247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2248" spans="1:4">
@@ -43411,7 +43411,7 @@
         <v>1</v>
       </c>
       <c r="D2260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -43453,7 +43453,7 @@
         <v>0</v>
       </c>
       <c r="D2263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2264" spans="1:4">
@@ -43551,7 +43551,7 @@
         <v>0</v>
       </c>
       <c r="D2270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2271" spans="1:4">
@@ -43635,7 +43635,7 @@
         <v>1</v>
       </c>
       <c r="D2276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -43761,7 +43761,7 @@
         <v>0</v>
       </c>
       <c r="D2285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2286" spans="1:4">
@@ -43985,7 +43985,7 @@
         <v>1</v>
       </c>
       <c r="D2301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -44279,7 +44279,7 @@
         <v>0</v>
       </c>
       <c r="D2322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2323" spans="1:4">
@@ -44293,7 +44293,7 @@
         <v>0</v>
       </c>
       <c r="D2323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2324" spans="1:4">
@@ -44545,7 +44545,7 @@
         <v>0</v>
       </c>
       <c r="D2341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2342" spans="1:4">
@@ -45007,7 +45007,7 @@
         <v>1</v>
       </c>
       <c r="D2374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2375" spans="1:4">
@@ -45049,7 +45049,7 @@
         <v>0</v>
       </c>
       <c r="D2377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -45077,7 +45077,7 @@
         <v>0</v>
       </c>
       <c r="D2379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -45105,7 +45105,7 @@
         <v>1</v>
       </c>
       <c r="D2381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2382" spans="1:4">
@@ -45203,7 +45203,7 @@
         <v>1</v>
       </c>
       <c r="D2388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2389" spans="1:4">
@@ -45245,7 +45245,7 @@
         <v>1</v>
       </c>
       <c r="D2391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2392" spans="1:4">
@@ -47275,7 +47275,7 @@
         <v>0</v>
       </c>
       <c r="D2536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2537" spans="1:4">
@@ -48199,7 +48199,7 @@
         <v>1</v>
       </c>
       <c r="D2602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2603" spans="1:4">
@@ -48255,7 +48255,7 @@
         <v>1</v>
       </c>
       <c r="D2606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2607" spans="1:4">
@@ -48283,7 +48283,7 @@
         <v>1</v>
       </c>
       <c r="D2608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2609" spans="1:4">
@@ -48311,7 +48311,7 @@
         <v>0</v>
       </c>
       <c r="D2610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2611" spans="1:4">
@@ -48493,7 +48493,7 @@
         <v>0</v>
       </c>
       <c r="D2623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2624" spans="1:4">
@@ -48577,7 +48577,7 @@
         <v>0</v>
       </c>
       <c r="D2629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2630" spans="1:4">
@@ -48885,7 +48885,7 @@
         <v>0</v>
       </c>
       <c r="D2651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652" spans="1:4">
@@ -49053,7 +49053,7 @@
         <v>0</v>
       </c>
       <c r="D2663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2664" spans="1:4">
@@ -50201,7 +50201,7 @@
         <v>0</v>
       </c>
       <c r="D2745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2746" spans="1:4">
@@ -50257,7 +50257,7 @@
         <v>0</v>
       </c>
       <c r="D2749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2750" spans="1:4">
@@ -50481,7 +50481,7 @@
         <v>0</v>
       </c>
       <c r="D2765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -50523,7 +50523,7 @@
         <v>0</v>
       </c>
       <c r="D2768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -50943,7 +50943,7 @@
         <v>1</v>
       </c>
       <c r="D2798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2799" spans="1:4">
@@ -50985,7 +50985,7 @@
         <v>0</v>
       </c>
       <c r="D2801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2802" spans="1:4">
@@ -51727,7 +51727,7 @@
         <v>0</v>
       </c>
       <c r="D2854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2855" spans="1:4">
@@ -52497,7 +52497,7 @@
         <v>1</v>
       </c>
       <c r="D2909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2910" spans="1:4">
@@ -52721,7 +52721,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2926" spans="1:4">
@@ -52833,7 +52833,7 @@
         <v>0</v>
       </c>
       <c r="D2933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2934" spans="1:4">
@@ -52875,7 +52875,7 @@
         <v>0</v>
       </c>
       <c r="D2936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2937" spans="1:4">
@@ -52931,7 +52931,7 @@
         <v>1</v>
       </c>
       <c r="D2940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2941" spans="1:4">
@@ -53085,7 +53085,7 @@
         <v>0</v>
       </c>
       <c r="D2951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2952" spans="1:4">
@@ -53435,7 +53435,7 @@
         <v>0</v>
       </c>
       <c r="D2976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2977" spans="1:4">
@@ -53589,7 +53589,7 @@
         <v>0</v>
       </c>
       <c r="D2987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2988" spans="1:4">
@@ -53659,7 +53659,7 @@
         <v>0</v>
       </c>
       <c r="D2992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2993" spans="1:4">
@@ -54331,7 +54331,7 @@
         <v>0</v>
       </c>
       <c r="D3040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3041" spans="1:4">
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="D3042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3043" spans="1:4">
@@ -54499,7 +54499,7 @@
         <v>0</v>
       </c>
       <c r="D3052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3053" spans="1:4">
@@ -54583,7 +54583,7 @@
         <v>0</v>
       </c>
       <c r="D3058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3059" spans="1:4">
@@ -54933,7 +54933,7 @@
         <v>0</v>
       </c>
       <c r="D3083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3084" spans="1:4">
@@ -55213,7 +55213,7 @@
         <v>0</v>
       </c>
       <c r="D3103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3104" spans="1:4">
@@ -55423,7 +55423,7 @@
         <v>0</v>
       </c>
       <c r="D3118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3119" spans="1:4">
@@ -55437,7 +55437,7 @@
         <v>0</v>
       </c>
       <c r="D3119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3120" spans="1:4">
@@ -55493,7 +55493,7 @@
         <v>0</v>
       </c>
       <c r="D3123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3124" spans="1:4">
@@ -55535,7 +55535,7 @@
         <v>0</v>
       </c>
       <c r="D3126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3127" spans="1:4">
@@ -55675,7 +55675,7 @@
         <v>1</v>
       </c>
       <c r="D3136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3137" spans="1:4">
@@ -56081,7 +56081,7 @@
         <v>0</v>
       </c>
       <c r="D3165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3166" spans="1:4">
@@ -56207,7 +56207,7 @@
         <v>0</v>
       </c>
       <c r="D3174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3175" spans="1:4">
@@ -56249,7 +56249,7 @@
         <v>1</v>
       </c>
       <c r="D3177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3178" spans="1:4">
@@ -56445,7 +56445,7 @@
         <v>0</v>
       </c>
       <c r="D3191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3192" spans="1:4">
@@ -57425,7 +57425,7 @@
         <v>1</v>
       </c>
       <c r="D3261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3262" spans="1:4">
@@ -57593,7 +57593,7 @@
         <v>0</v>
       </c>
       <c r="D3273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3274" spans="1:4">
@@ -57635,7 +57635,7 @@
         <v>0</v>
       </c>
       <c r="D3276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3277" spans="1:4">
@@ -57817,7 +57817,7 @@
         <v>0</v>
       </c>
       <c r="D3289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3290" spans="1:4">
@@ -57915,7 +57915,7 @@
         <v>0</v>
       </c>
       <c r="D3296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3297" spans="1:4">
@@ -58055,7 +58055,7 @@
         <v>1</v>
       </c>
       <c r="D3306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3307" spans="1:4">
@@ -58251,7 +58251,7 @@
         <v>0</v>
       </c>
       <c r="D3320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3321" spans="1:4">
@@ -58447,7 +58447,7 @@
         <v>1</v>
       </c>
       <c r="D3334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3335" spans="1:4">
@@ -58615,7 +58615,7 @@
         <v>1</v>
       </c>
       <c r="D3346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3347" spans="1:4">
@@ -59147,7 +59147,7 @@
         <v>0</v>
       </c>
       <c r="D3384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3385" spans="1:4">
@@ -60225,7 +60225,7 @@
         <v>0</v>
       </c>
       <c r="D3461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:4">
@@ -60589,7 +60589,7 @@
         <v>1</v>
       </c>
       <c r="D3487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3488" spans="1:4">
@@ -60813,7 +60813,7 @@
         <v>1</v>
       </c>
       <c r="D3503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3504" spans="1:4">
@@ -61625,7 +61625,7 @@
         <v>0</v>
       </c>
       <c r="D3561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3562" spans="1:4">
@@ -62479,7 +62479,7 @@
         <v>1</v>
       </c>
       <c r="D3622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3623" spans="1:4">
@@ -64117,7 +64117,7 @@
         <v>1</v>
       </c>
       <c r="D3739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3740" spans="1:4">
@@ -64565,7 +64565,7 @@
         <v>1</v>
       </c>
       <c r="D3771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3772" spans="1:4">
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="D3775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3776" spans="1:4">
@@ -64719,7 +64719,7 @@
         <v>0</v>
       </c>
       <c r="D3782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3783" spans="1:4">
@@ -64887,7 +64887,7 @@
         <v>0</v>
       </c>
       <c r="D3794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3795" spans="1:4">
@@ -65013,7 +65013,7 @@
         <v>0</v>
       </c>
       <c r="D3803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3804" spans="1:4">
@@ -65027,7 +65027,7 @@
         <v>0</v>
       </c>
       <c r="D3804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3805" spans="1:4">
@@ -65195,7 +65195,7 @@
         <v>0</v>
       </c>
       <c r="D3816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3817" spans="1:4">
@@ -65209,7 +65209,7 @@
         <v>0</v>
       </c>
       <c r="D3817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3818" spans="1:4">
@@ -65503,7 +65503,7 @@
         <v>0</v>
       </c>
       <c r="D3838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3839" spans="1:4">
@@ -65531,7 +65531,7 @@
         <v>0</v>
       </c>
       <c r="D3840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3841" spans="1:4">
@@ -65755,7 +65755,7 @@
         <v>0</v>
       </c>
       <c r="D3856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3857" spans="1:4">
@@ -65769,7 +65769,7 @@
         <v>0</v>
       </c>
       <c r="D3857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3858" spans="1:4">
@@ -65909,7 +65909,7 @@
         <v>0</v>
       </c>
       <c r="D3867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3868" spans="1:4">
@@ -65979,7 +65979,7 @@
         <v>0</v>
       </c>
       <c r="D3872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3873" spans="1:4">
@@ -66105,7 +66105,7 @@
         <v>0</v>
       </c>
       <c r="D3881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3882" spans="1:4">
@@ -66413,7 +66413,7 @@
         <v>0</v>
       </c>
       <c r="D3903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3904" spans="1:4">
@@ -66469,7 +66469,7 @@
         <v>0</v>
       </c>
       <c r="D3907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3908" spans="1:4">
@@ -66609,7 +66609,7 @@
         <v>0</v>
       </c>
       <c r="D3917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3918" spans="1:4">
@@ -66735,7 +66735,7 @@
         <v>0</v>
       </c>
       <c r="D3926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3927" spans="1:4">
@@ -66791,7 +66791,7 @@
         <v>1</v>
       </c>
       <c r="D3930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3931" spans="1:4">
@@ -66805,7 +66805,7 @@
         <v>0</v>
       </c>
       <c r="D3931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3932" spans="1:4">
@@ -66861,7 +66861,7 @@
         <v>0</v>
       </c>
       <c r="D3935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3936" spans="1:4">
@@ -66959,7 +66959,7 @@
         <v>0</v>
       </c>
       <c r="D3942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3943" spans="1:4">
@@ -67043,7 +67043,7 @@
         <v>0</v>
       </c>
       <c r="D3948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3949" spans="1:4">
@@ -67267,7 +67267,7 @@
         <v>0</v>
       </c>
       <c r="D3964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3965" spans="1:4">
@@ -67323,7 +67323,7 @@
         <v>0</v>
       </c>
       <c r="D3968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3969" spans="1:4">
@@ -67575,7 +67575,7 @@
         <v>0</v>
       </c>
       <c r="D3986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3987" spans="1:4">
@@ -67631,7 +67631,7 @@
         <v>1</v>
       </c>
       <c r="D3990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3991" spans="1:4">
@@ -68443,7 +68443,7 @@
         <v>1</v>
       </c>
       <c r="D4048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4049" spans="1:4">
@@ -68457,7 +68457,7 @@
         <v>1</v>
       </c>
       <c r="D4049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4050" spans="1:4">
@@ -68751,7 +68751,7 @@
         <v>0</v>
       </c>
       <c r="D4070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4071" spans="1:4">
@@ -68835,7 +68835,7 @@
         <v>0</v>
       </c>
       <c r="D4076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4077" spans="1:4">
@@ -69157,7 +69157,7 @@
         <v>0</v>
       </c>
       <c r="D4099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4100" spans="1:4">
@@ -69171,7 +69171,7 @@
         <v>0</v>
       </c>
       <c r="D4100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4101" spans="1:4">
@@ -69479,7 +69479,7 @@
         <v>0</v>
       </c>
       <c r="D4122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4123" spans="1:4">
@@ -69675,7 +69675,7 @@
         <v>0</v>
       </c>
       <c r="D4136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4137" spans="1:4">
@@ -73567,7 +73567,7 @@
         <v>0</v>
       </c>
       <c r="D4414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4415" spans="1:4">
@@ -75709,7 +75709,7 @@
         <v>0</v>
       </c>
       <c r="D4567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4568" spans="1:4">
@@ -82205,7 +82205,7 @@
         <v>0</v>
       </c>
       <c r="D5031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5032" spans="1:4">
@@ -89331,7 +89331,7 @@
         <v>0</v>
       </c>
       <c r="D5540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5541" spans="1:4">
@@ -89961,7 +89961,7 @@
         <v>0</v>
       </c>
       <c r="D5585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5586" spans="1:4">
@@ -90493,7 +90493,7 @@
         <v>0</v>
       </c>
       <c r="D5623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5624" spans="1:4">
@@ -93559,7 +93559,7 @@
         <v>0</v>
       </c>
       <c r="D5842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5843" spans="1:4">
@@ -95659,7 +95659,7 @@
         <v>0</v>
       </c>
       <c r="D5992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5993" spans="1:4">
@@ -96499,7 +96499,7 @@
         <v>0</v>
       </c>
       <c r="D6052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6053" spans="1:4">
@@ -98571,7 +98571,7 @@
         <v>0</v>
       </c>
       <c r="D6200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6201" spans="1:4">
@@ -100587,7 +100587,7 @@
         <v>0</v>
       </c>
       <c r="D6344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6345" spans="1:4">
@@ -101133,7 +101133,7 @@
         <v>1</v>
       </c>
       <c r="D6383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6384" spans="1:4">
@@ -102995,7 +102995,7 @@
         <v>0</v>
       </c>
       <c r="D6516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6517" spans="1:4">
@@ -106957,7 +106957,7 @@
         <v>0</v>
       </c>
       <c r="D6799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6800" spans="1:4">
